--- a/Meaning.xlsx
+++ b/Meaning.xlsx
@@ -3,8 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7845"/>
+    <workbookView windowWidth="20490" windowHeight="7845" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,12 +15,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="291">
   <si>
     <t>Filename</t>
   </si>
   <si>
-    <t>HanViet</t>
+    <t>Kanji</t>
+  </si>
+  <si>
+    <t>Kun</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Hán Việt</t>
   </si>
   <si>
     <t>English</t>
@@ -28,6 +38,15 @@
     <t>Vietnamese</t>
   </si>
   <si>
+    <t>一</t>
+  </si>
+  <si>
+    <t>ひと-、 ひと.つ</t>
+  </si>
+  <si>
+    <t>イチ、 イツ</t>
+  </si>
+  <si>
     <t>Nhất</t>
   </si>
   <si>
@@ -37,6 +56,15 @@
     <t>Một, 1</t>
   </si>
   <si>
+    <t>乙 </t>
+  </si>
+  <si>
+    <t>おと-、 きのと</t>
+  </si>
+  <si>
+    <t>オツ、 イツ</t>
+  </si>
+  <si>
     <t>Ất</t>
   </si>
   <si>
@@ -46,6 +74,9 @@
     <t>ngôi thứ hai thuộc hàng Can</t>
   </si>
   <si>
+    <t>〇</t>
+  </si>
+  <si>
     <t>Linh</t>
   </si>
   <si>
@@ -55,6 +86,15 @@
     <t>Số 0</t>
   </si>
   <si>
+    <t>丁</t>
+  </si>
+  <si>
+    <t>ひのと</t>
+  </si>
+  <si>
+    <t>チョウ、 テイ、 チン、 トウ、 チ</t>
+  </si>
+  <si>
     <t>Đinh</t>
   </si>
   <si>
@@ -64,6 +104,15 @@
     <t>họ Đinh</t>
   </si>
   <si>
+    <t>七</t>
+  </si>
+  <si>
+    <t>なな、 なな.つ、 なの</t>
+  </si>
+  <si>
+    <t>シチ</t>
+  </si>
+  <si>
     <t>Thất</t>
   </si>
   <si>
@@ -73,6 +122,15 @@
     <t>Số 7</t>
   </si>
   <si>
+    <t>九</t>
+  </si>
+  <si>
+    <t>ここの、 ここの.つ</t>
+  </si>
+  <si>
+    <t>キュウ、 ク</t>
+  </si>
+  <si>
     <t>Cửu</t>
   </si>
   <si>
@@ -82,6 +140,12 @@
     <t>Số 9</t>
   </si>
   <si>
+    <t>了 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> リョウ</t>
+  </si>
+  <si>
     <t>Liễu</t>
   </si>
   <si>
@@ -91,6 +155,15 @@
     <t>Xong, hết, đã rồi</t>
   </si>
   <si>
+    <t>二</t>
+  </si>
+  <si>
+    <t>ふた、 ふた.つ、 ふたたび</t>
+  </si>
+  <si>
+    <t>ニ、 ジ</t>
+  </si>
+  <si>
     <t>Nhị</t>
   </si>
   <si>
@@ -100,6 +173,15 @@
     <t>Số 2</t>
   </si>
   <si>
+    <t>人</t>
+  </si>
+  <si>
+    <t>ひと、 -り、 -と</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ジン、 ニン</t>
+  </si>
+  <si>
     <t>Nhân</t>
   </si>
   <si>
@@ -109,6 +191,32 @@
     <t>Con người</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>入 </t>
+    </r>
+  </si>
+  <si>
+    <t>い.る、 -い.る、 -い.り、 い.れる、 -い.れ、 はい.る</t>
+  </si>
+  <si>
+    <t>ニュウ、 ジュ</t>
+  </si>
+  <si>
     <t>Nhập</t>
   </si>
   <si>
@@ -116,6 +224,1242 @@
   </si>
   <si>
     <t xml:space="preserve">Vào trong </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
+      <t>八</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>や</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>や</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>つ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>やっ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>つ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>よう</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ハチ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">,  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ハツ</t>
+    </r>
+  </si>
+  <si>
+    <t>Bát</t>
+  </si>
+  <si>
+    <t>Eight, 8</t>
+  </si>
+  <si>
+    <t>Số 8</t>
+  </si>
+  <si>
+    <t>刀</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>かたな</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>そり</t>
+    </r>
+  </si>
+  <si>
+    <t>トウ</t>
+  </si>
+  <si>
+    <t>Đao</t>
+  </si>
+  <si>
+    <t>Sword , katana</t>
+  </si>
+  <si>
+    <t>Cái đao, con dao</t>
+  </si>
+  <si>
+    <t>力</t>
+  </si>
+  <si>
+    <t>ちから</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>リョク</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">,  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>リキ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">,  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>リイ</t>
+    </r>
+  </si>
+  <si>
+    <t>Lực</t>
+  </si>
+  <si>
+    <t>force; strength; might; vigour; vigor; energy</t>
+  </si>
+  <si>
+    <t>Sức lực</t>
+  </si>
+  <si>
+    <t>十</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>とお</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>と</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>そ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ジュウ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">,  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ジッ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">,  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ジュッ</t>
+    </r>
+  </si>
+  <si>
+    <t>Thập</t>
+  </si>
+  <si>
+    <t>Ten, 10</t>
+  </si>
+  <si>
+    <t>Số 10</t>
+  </si>
+  <si>
+    <t>又</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>また</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>また</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">-, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>また</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>の</t>
+    </r>
+  </si>
+  <si>
+    <t>ユウ</t>
+  </si>
+  <si>
+    <t>Hựu</t>
+  </si>
+  <si>
+    <t>again; once more; once again; another time; some other time​</t>
+  </si>
+  <si>
+    <t>Còn lại</t>
+  </si>
+  <si>
+    <t>乃</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>すなわ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ち</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">,  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>なんじ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ナイ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ダイ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ノ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>アイ</t>
+    </r>
+  </si>
+  <si>
+    <t>Nãi</t>
+  </si>
+  <si>
+    <t>s; of; belonging to</t>
+  </si>
+  <si>
+    <t>Bèn, rồi thì, bởi vậy</t>
+  </si>
+  <si>
+    <t>万</t>
+  </si>
+  <si>
+    <t>よろず</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>マン</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">,  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>バン</t>
+    </r>
+  </si>
+  <si>
+    <t>Vạn</t>
+  </si>
+  <si>
+    <t>Ten thousand, 10000</t>
+  </si>
+  <si>
+    <t>mười nghìn</t>
+  </si>
+  <si>
+    <t>丈</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>たけ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>だけ</t>
+    </r>
+  </si>
+  <si>
+    <t>ジョウ</t>
+  </si>
+  <si>
+    <t>Trượng</t>
+  </si>
+  <si>
+    <t>height; stature</t>
+  </si>
+  <si>
+    <t>đơn vị đo (bằng 10 thước), già cả</t>
+  </si>
+  <si>
+    <t>三</t>
+  </si>
+  <si>
+    <t>み、 み.つ、 みっ.つ</t>
+  </si>
+  <si>
+    <t>サン、 ゾウ</t>
+  </si>
+  <si>
+    <t>Tam</t>
+  </si>
+  <si>
+    <t>Three</t>
+  </si>
+  <si>
+    <t>Số 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 上</t>
+  </si>
+  <si>
+    <t>うえ、 -うえ、 うわ-、 かみ、 あ.げる、 -あ.げる、 あ.がる、 -あ.がる、 あ.がり、 -あ.がり、 のぼ.る、 のぼ.り、 のぼ.せる、 のぼ.す、 たてまつ.る</t>
+  </si>
+  <si>
+    <t>ジョウ、 ショウ、 シャン</t>
+  </si>
+  <si>
+    <t>Thượng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">above; up; over; elder </t>
+  </si>
+  <si>
+    <t>ở phía trên</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 下</t>
+  </si>
+  <si>
+    <t>した、 しも、 もと、 さ.げる、 さ.がる、 くだ.る、 くだ.り、 くだ.す、 -くだ.す、 くだ.さる、 お.ろす、 お.りる</t>
+  </si>
+  <si>
+    <t>カ、 ゲ</t>
+  </si>
+  <si>
+    <t>Hạ</t>
+  </si>
+  <si>
+    <t>below; down; under; younger</t>
+  </si>
+  <si>
+    <t>ở phía dưới</t>
+  </si>
+  <si>
+    <t>丸</t>
+  </si>
+  <si>
+    <t>まる、 まる.める、 まる.い</t>
+  </si>
+  <si>
+    <t>ガン</t>
+  </si>
+  <si>
+    <t>Hoàn</t>
+  </si>
+  <si>
+    <t>circle, whole, full</t>
+  </si>
+  <si>
+    <t>viên, tròn</t>
+  </si>
+  <si>
+    <t>久</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ひさ.しい</t>
+  </si>
+  <si>
+    <t>a long time (since the last time); first in a long time</t>
+  </si>
+  <si>
+    <t>Lâu, chờ đợi</t>
+  </si>
+  <si>
+    <t>亡</t>
+  </si>
+  <si>
+    <t>な.い、 な.き-、 ほろ.びる、 ほろ.ぶ、 ほろ.ぼす</t>
+  </si>
+  <si>
+    <t>ボウ、 モウ</t>
+  </si>
+  <si>
+    <t>Vong</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>Chết, mất</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 凡</t>
+  </si>
+  <si>
+    <t>およ.そ、 おうよ.そ、 すべ.て</t>
+  </si>
+  <si>
+    <t>ボン、 ハン</t>
+  </si>
+  <si>
+    <t>Phàm</t>
+  </si>
+  <si>
+    <t>about; roughly; approximately​</t>
+  </si>
+  <si>
+    <t>bình thường, đại khái, chung</t>
+  </si>
+  <si>
+    <t>刃</t>
+  </si>
+  <si>
+    <t>は、 やいば、 き.る</t>
+  </si>
+  <si>
+    <t>Nhẫn</t>
+  </si>
+  <si>
+    <t>edge (of a knife or sword), blade</t>
+  </si>
+  <si>
+    <t>mũi nhọn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 千</t>
+  </si>
+  <si>
+    <t>ち</t>
+  </si>
+  <si>
+    <t>セン</t>
+  </si>
+  <si>
+    <t>Thiên</t>
+  </si>
+  <si>
+    <t>1,000; thousand​</t>
+  </si>
+  <si>
+    <t>nghìn, 1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 口</t>
+  </si>
+  <si>
+    <t>くち</t>
+  </si>
+  <si>
+    <t>コウ、 ク</t>
+  </si>
+  <si>
+    <t>Khẩu</t>
+  </si>
+  <si>
+    <t>mouth, gate, entrance</t>
+  </si>
+  <si>
+    <t>cái miệng, cửu</t>
+  </si>
+  <si>
+    <t>土</t>
+  </si>
+  <si>
+    <t>つち</t>
+  </si>
+  <si>
+    <t>ド、 ト</t>
+  </si>
+  <si>
+    <t>Thổ</t>
+  </si>
+  <si>
+    <t>earth; soil; dirt; clay; mud​</t>
+  </si>
+  <si>
+    <t>đất, sao Thổ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 士</t>
+  </si>
+  <si>
+    <t>さむらい</t>
+  </si>
+  <si>
+    <t>シ</t>
+  </si>
+  <si>
+    <t>Sĩ</t>
+  </si>
+  <si>
+    <t>gentleman, scholar, samurai, samurai radical (no. 33)</t>
+  </si>
+  <si>
+    <t>học trò, quan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 夕</t>
+  </si>
+  <si>
+    <t>ゆう</t>
+  </si>
+  <si>
+    <t>セキ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tịch </t>
+  </si>
+  <si>
+    <t>evening</t>
+  </si>
+  <si>
+    <t>buổi chiều, buổi tối</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 大</t>
+  </si>
+  <si>
+    <t>おお-、 おお.きい、 -おお.いに</t>
+  </si>
+  <si>
+    <t>ダイ、 タイ</t>
+  </si>
+  <si>
+    <t>Đại</t>
+  </si>
+  <si>
+    <t>large; big; great; huge; vast; major; important; serious; severe</t>
+  </si>
+  <si>
+    <t>to, lớn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 女</t>
+  </si>
+  <si>
+    <t>おんな、 め</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ジョ、 ニョ、 ニョウ</t>
+  </si>
+  <si>
+    <t>Nữ</t>
+  </si>
+  <si>
+    <t>female; woman; female sex</t>
+  </si>
+  <si>
+    <t>Đàn bà, người phái nữ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 子</t>
+  </si>
+  <si>
+    <t>こ、 -こ、 ね</t>
+  </si>
+  <si>
+    <t>シ、 ス、 ツ</t>
+  </si>
+  <si>
+    <t>Tử</t>
+  </si>
+  <si>
+    <t>child; kid; teenager; youngster; young (non-adult) person</t>
+  </si>
+  <si>
+    <t>Con trai</t>
+  </si>
+  <si>
+    <t>寸</t>
+  </si>
+  <si>
+    <t>スン</t>
+  </si>
+  <si>
+    <t>Thốn</t>
+  </si>
+  <si>
+    <t>measurement, tenth of a shaku, a little, small</t>
+  </si>
+  <si>
+    <t>tấc (đơn vị đo chiều dài)</t>
+  </si>
+  <si>
+    <t>小</t>
+  </si>
+  <si>
+    <t>ちい.さい、 こ-、 お-、 さ-</t>
+  </si>
+  <si>
+    <t>ショウ</t>
+  </si>
+  <si>
+    <t>Tiểu</t>
+  </si>
+  <si>
+    <t>little, small</t>
+  </si>
+  <si>
+    <t>nhỏ</t>
+  </si>
+  <si>
+    <t>山</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> やま</t>
+  </si>
+  <si>
+    <t>サン、 セン</t>
+  </si>
+  <si>
+    <t>Sơn</t>
+  </si>
+  <si>
+    <t>mountain</t>
+  </si>
+  <si>
+    <t>núi, mồ mả</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 川</t>
+  </si>
+  <si>
+    <t>かわ</t>
+  </si>
+  <si>
+    <t>Xuyên</t>
+  </si>
+  <si>
+    <t>stream, river, river or three-stroke river radical</t>
+  </si>
+  <si>
+    <t>dòng nước, sông, cánh đồng</t>
+  </si>
+  <si>
+    <t>工</t>
+  </si>
+  <si>
+    <t>コウ、 ク、 グ</t>
+  </si>
+  <si>
+    <t>Công</t>
+  </si>
+  <si>
+    <t>craft, construction, worker</t>
+  </si>
+  <si>
+    <t>Công việc, người thợ</t>
+  </si>
+  <si>
+    <t>己</t>
+  </si>
+  <si>
+    <t>おのれ、 つちのと、 な</t>
+  </si>
+  <si>
+    <t>コ、 キ</t>
+  </si>
+  <si>
+    <t>Kỷ</t>
+  </si>
+  <si>
+    <t>I, me, self</t>
+  </si>
+  <si>
+    <t>Riêng, mình</t>
+  </si>
+  <si>
+    <t>干</t>
+  </si>
+  <si>
+    <t>ほ.す、 ほ.し-、 -ぼ.し、 ひ.る</t>
+  </si>
+  <si>
+    <t>カン</t>
+  </si>
+  <si>
+    <t>Can</t>
+  </si>
+  <si>
+    <t>dry, parch, ebb, recede, interfere, intercede</t>
+  </si>
+  <si>
+    <t>khô, cạn kiệt, can thiệp, cầu, mong</t>
+  </si>
+  <si>
+    <t>弓</t>
+  </si>
+  <si>
+    <t>ゆみ</t>
+  </si>
+  <si>
+    <t>キュウ</t>
+  </si>
+  <si>
+    <t>Cung</t>
+  </si>
+  <si>
+    <t>bow, bow (archery, violin)</t>
+  </si>
+  <si>
+    <t>Cong, cái cung</t>
+  </si>
+  <si>
+    <t>才</t>
+  </si>
+  <si>
+    <t>サイ</t>
+  </si>
+  <si>
+    <t>Tài</t>
+  </si>
+  <si>
+    <t>genius, years old, cubic shaku, talent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mới, vừa mới, tài năng </t>
+  </si>
+  <si>
+    <t>之</t>
+  </si>
+  <si>
+    <t>の、 これ、 ゆく、 この</t>
+  </si>
+  <si>
+    <t>Chi</t>
+  </si>
+  <si>
+    <t>of, this  this one, this person</t>
+  </si>
+  <si>
+    <t>đã rồi, thuộc về</t>
+  </si>
+  <si>
+    <t>巾</t>
+  </si>
+  <si>
+    <t>おお.い、 ちきり、 きれ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> キン、 フク</t>
+  </si>
+  <si>
+    <t>Cân</t>
+  </si>
+  <si>
+    <t>towel, hanging scroll, width</t>
+  </si>
+  <si>
+    <t>cái khăn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 乞</t>
+  </si>
+  <si>
+    <t>こ.う</t>
+  </si>
+  <si>
+    <t>コツ、 キツ、 キ、 キケ、 コチ</t>
+  </si>
+  <si>
+    <t>Khất</t>
+  </si>
+  <si>
+    <t>beg, invite, ask</t>
+  </si>
+  <si>
+    <t>kẻ ăn mày, người ăn xin</t>
+  </si>
+  <si>
+    <t>于</t>
+  </si>
+  <si>
+    <t>ここに、 ああ、 おいて、 に、 より、 を</t>
+  </si>
+  <si>
+    <t>ウ、 ク</t>
+  </si>
+  <si>
+    <t>Vu</t>
+  </si>
+  <si>
+    <t>going, from</t>
+  </si>
+  <si>
+    <t>Đi, về, vu quy</t>
+  </si>
+  <si>
+    <t>也</t>
+  </si>
+  <si>
+    <t>なり、 か、 また</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ヤ、 エ</t>
+  </si>
+  <si>
+    <t>Dã</t>
+  </si>
+  <si>
+    <t>to be</t>
+  </si>
+  <si>
+    <t>Cũng vậy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 々</t>
+  </si>
+  <si>
+    <t>kanji repetition mark​</t>
+  </si>
+  <si>
+    <t>勺</t>
+  </si>
+  <si>
+    <t>シャク</t>
+  </si>
+  <si>
+    <t>Chước</t>
+  </si>
+  <si>
+    <t>ladle, one tenth of a go, dip, traditional unit of volume, 18 ml of water​</t>
+  </si>
+  <si>
+    <t>múc lấy</t>
   </si>
 </sst>
 </file>
@@ -123,41 +1467,52 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="27">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="DejaVu Sans"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF202122"/>
+      <name val="sans-serif"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Droid Sans Fallback"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -183,6 +1538,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -191,9 +1568,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,6 +1614,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -215,29 +1629,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,13 +1645,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,17 +1659,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -290,7 +1675,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,67 +1789,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,19 +1807,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,31 +1819,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,7 +1831,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,25 +1843,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,21 +1866,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -547,6 +1917,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -561,178 +1966,178 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1054,23 +2459,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.75" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.8962962962963" defaultRowHeight="15.75" outlineLevelCol="6"/>
   <cols>
-    <col min="3" max="3" width="24.4444444444444" customWidth="1"/>
-    <col min="4" max="4" width="25.5555555555556" customWidth="1"/>
+    <col min="2" max="2" width="8.88888888888889" style="1"/>
+    <col min="3" max="3" width="27.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="15.2222222222222" customWidth="1"/>
+    <col min="5" max="5" width="26.5555555555556" customWidth="1"/>
+    <col min="6" max="6" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -1079,149 +2487,1152 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="16.5" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" ht="16.5" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" ht="16.5" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>13</v>
+      <c r="B5" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>16</v>
+      <c r="B6" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" ht="16.5" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>19</v>
+      <c r="B7" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" ht="16.5" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
+      <c r="B8" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" ht="16.5" spans="1:7">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
+      <c r="B9" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>48</v>
+      </c>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" ht="16.5" spans="1:7">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>28</v>
+      <c r="B10" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>54</v>
+      </c>
+      <c r="E10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" ht="16.5" spans="1:7">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" ht="16.5" spans="1:7">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" ht="16.5" spans="1:7">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" ht="20" customHeight="1" spans="1:7">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" ht="16.5" spans="1:7">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" ht="16.5" spans="1:7">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" t="s">
+        <v>92</v>
+      </c>
+      <c r="G16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" ht="16.5" spans="1:7">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" ht="16.5" spans="1:7">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" t="s">
+        <v>104</v>
+      </c>
+      <c r="G18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" ht="16.5" spans="1:7">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" t="s">
+        <v>109</v>
+      </c>
+      <c r="F19" t="s">
+        <v>110</v>
+      </c>
+      <c r="G19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" ht="16.5" spans="1:7">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" t="s">
+        <v>114</v>
+      </c>
+      <c r="E20" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" t="s">
+        <v>119</v>
+      </c>
+      <c r="D21" t="s">
+        <v>120</v>
+      </c>
+      <c r="E21" t="s">
+        <v>121</v>
+      </c>
+      <c r="F21" t="s">
+        <v>122</v>
+      </c>
+      <c r="G21" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" t="s">
+        <v>125</v>
+      </c>
+      <c r="D22" t="s">
+        <v>126</v>
+      </c>
+      <c r="E22" t="s">
+        <v>127</v>
+      </c>
+      <c r="F22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G22" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" t="s">
+        <v>131</v>
+      </c>
+      <c r="D23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E23" t="s">
+        <v>133</v>
+      </c>
+      <c r="F23" t="s">
+        <v>134</v>
+      </c>
+      <c r="G23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C24" t="s">
+        <v>137</v>
+      </c>
+      <c r="D24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" t="s">
+        <v>138</v>
+      </c>
+      <c r="G24" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C25" t="s">
+        <v>141</v>
+      </c>
+      <c r="D25" t="s">
+        <v>142</v>
+      </c>
+      <c r="E25" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" t="s">
+        <v>144</v>
+      </c>
+      <c r="G25" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C26" t="s">
+        <v>147</v>
+      </c>
+      <c r="D26" t="s">
+        <v>148</v>
+      </c>
+      <c r="E26" t="s">
+        <v>149</v>
+      </c>
+      <c r="F26" t="s">
+        <v>150</v>
+      </c>
+      <c r="G26" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C27" t="s">
+        <v>153</v>
+      </c>
+      <c r="D27" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" t="s">
+        <v>154</v>
+      </c>
+      <c r="F27" t="s">
+        <v>155</v>
+      </c>
+      <c r="G27" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C28" t="s">
+        <v>158</v>
+      </c>
+      <c r="D28" t="s">
+        <v>159</v>
+      </c>
+      <c r="E28" t="s">
+        <v>160</v>
+      </c>
+      <c r="F28" t="s">
+        <v>161</v>
+      </c>
+      <c r="G28" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C29" t="s">
+        <v>164</v>
+      </c>
+      <c r="D29" t="s">
+        <v>165</v>
+      </c>
+      <c r="E29" t="s">
+        <v>166</v>
+      </c>
+      <c r="F29" t="s">
+        <v>167</v>
+      </c>
+      <c r="G29" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C30" t="s">
+        <v>170</v>
+      </c>
+      <c r="D30" t="s">
+        <v>171</v>
+      </c>
+      <c r="E30" t="s">
+        <v>172</v>
+      </c>
+      <c r="F30" t="s">
+        <v>173</v>
+      </c>
+      <c r="G30" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C31" t="s">
+        <v>176</v>
+      </c>
+      <c r="D31" t="s">
+        <v>177</v>
+      </c>
+      <c r="E31" t="s">
+        <v>178</v>
+      </c>
+      <c r="F31" t="s">
+        <v>179</v>
+      </c>
+      <c r="G31" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
         <v>31</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B32" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C32" t="s">
+        <v>182</v>
+      </c>
+      <c r="D32" t="s">
+        <v>183</v>
+      </c>
+      <c r="E32" t="s">
+        <v>184</v>
+      </c>
+      <c r="F32" t="s">
+        <v>185</v>
+      </c>
+      <c r="G32" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
         <v>32</v>
       </c>
-      <c r="D11" t="s">
+      <c r="B33" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C33" t="s">
+        <v>188</v>
+      </c>
+      <c r="D33" t="s">
+        <v>189</v>
+      </c>
+      <c r="E33" t="s">
+        <v>190</v>
+      </c>
+      <c r="F33" t="s">
+        <v>191</v>
+      </c>
+      <c r="G33" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
         <v>33</v>
       </c>
+      <c r="B34" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C34" t="s">
+        <v>194</v>
+      </c>
+      <c r="D34" t="s">
+        <v>195</v>
+      </c>
+      <c r="E34" t="s">
+        <v>196</v>
+      </c>
+      <c r="F34" t="s">
+        <v>197</v>
+      </c>
+      <c r="G34" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C35" t="s">
+        <v>200</v>
+      </c>
+      <c r="D35" t="s">
+        <v>201</v>
+      </c>
+      <c r="E35" t="s">
+        <v>202</v>
+      </c>
+      <c r="F35" t="s">
+        <v>203</v>
+      </c>
+      <c r="G35" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D36" t="s">
+        <v>206</v>
+      </c>
+      <c r="E36" t="s">
+        <v>207</v>
+      </c>
+      <c r="F36" t="s">
+        <v>208</v>
+      </c>
+      <c r="G36" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C37" t="s">
+        <v>211</v>
+      </c>
+      <c r="D37" t="s">
+        <v>212</v>
+      </c>
+      <c r="E37" t="s">
+        <v>213</v>
+      </c>
+      <c r="F37" t="s">
+        <v>214</v>
+      </c>
+      <c r="G37" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C38" t="s">
+        <v>217</v>
+      </c>
+      <c r="D38" t="s">
+        <v>218</v>
+      </c>
+      <c r="E38" t="s">
+        <v>219</v>
+      </c>
+      <c r="F38" t="s">
+        <v>220</v>
+      </c>
+      <c r="G38" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C39" t="s">
+        <v>223</v>
+      </c>
+      <c r="D39" t="s">
+        <v>159</v>
+      </c>
+      <c r="E39" t="s">
+        <v>224</v>
+      </c>
+      <c r="F39" t="s">
+        <v>225</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D40" t="s">
+        <v>228</v>
+      </c>
+      <c r="E40" t="s">
+        <v>229</v>
+      </c>
+      <c r="F40" t="s">
+        <v>230</v>
+      </c>
+      <c r="G40" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C41" t="s">
+        <v>233</v>
+      </c>
+      <c r="D41" t="s">
+        <v>234</v>
+      </c>
+      <c r="E41" t="s">
+        <v>235</v>
+      </c>
+      <c r="F41" t="s">
+        <v>236</v>
+      </c>
+      <c r="G41" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C42" t="s">
+        <v>239</v>
+      </c>
+      <c r="D42" t="s">
+        <v>240</v>
+      </c>
+      <c r="E42" t="s">
+        <v>241</v>
+      </c>
+      <c r="F42" t="s">
+        <v>242</v>
+      </c>
+      <c r="G42" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C43" t="s">
+        <v>245</v>
+      </c>
+      <c r="D43" t="s">
+        <v>246</v>
+      </c>
+      <c r="E43" t="s">
+        <v>247</v>
+      </c>
+      <c r="F43" t="s">
+        <v>248</v>
+      </c>
+      <c r="G43" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C44"/>
+      <c r="D44" t="s">
+        <v>251</v>
+      </c>
+      <c r="E44" t="s">
+        <v>252</v>
+      </c>
+      <c r="F44" t="s">
+        <v>253</v>
+      </c>
+      <c r="G44" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C45" t="s">
+        <v>256</v>
+      </c>
+      <c r="D45" t="s">
+        <v>177</v>
+      </c>
+      <c r="E45" t="s">
+        <v>257</v>
+      </c>
+      <c r="F45" t="s">
+        <v>258</v>
+      </c>
+      <c r="G45" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C46" t="s">
+        <v>261</v>
+      </c>
+      <c r="D46" t="s">
+        <v>262</v>
+      </c>
+      <c r="E46" t="s">
+        <v>263</v>
+      </c>
+      <c r="F46" t="s">
+        <v>264</v>
+      </c>
+      <c r="G46" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C47" t="s">
+        <v>267</v>
+      </c>
+      <c r="D47" t="s">
+        <v>268</v>
+      </c>
+      <c r="E47" t="s">
+        <v>269</v>
+      </c>
+      <c r="F47" t="s">
+        <v>270</v>
+      </c>
+      <c r="G47" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C48" t="s">
+        <v>273</v>
+      </c>
+      <c r="D48" t="s">
+        <v>274</v>
+      </c>
+      <c r="E48" t="s">
+        <v>275</v>
+      </c>
+      <c r="F48" t="s">
+        <v>276</v>
+      </c>
+      <c r="G48" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C49" t="s">
+        <v>279</v>
+      </c>
+      <c r="D49" t="s">
+        <v>280</v>
+      </c>
+      <c r="E49" t="s">
+        <v>281</v>
+      </c>
+      <c r="F49" t="s">
+        <v>282</v>
+      </c>
+      <c r="G49" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F50" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D51" t="s">
+        <v>287</v>
+      </c>
+      <c r="E51" t="s">
+        <v>288</v>
+      </c>
+      <c r="F51" t="s">
+        <v>289</v>
+      </c>
+      <c r="G51" t="s">
+        <v>290</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="一"/>
+    <hyperlink ref="B3" r:id="rId2" display="乙 "/>
+    <hyperlink ref="B4" r:id="rId3" display="〇"/>
+    <hyperlink ref="B5" r:id="rId4" display="丁"/>
+    <hyperlink ref="B6" r:id="rId5" display="七"/>
+    <hyperlink ref="B7" r:id="rId6" display="九"/>
+    <hyperlink ref="B8" r:id="rId7" display="了 "/>
+    <hyperlink ref="B9" r:id="rId8" display="二"/>
+    <hyperlink ref="B10" r:id="rId9" display="人"/>
+    <hyperlink ref="B11" r:id="rId10" display=" 入 "/>
+    <hyperlink ref="B12" r:id="rId11" display=" 八"/>
+    <hyperlink ref="B13" r:id="rId12" display="刀"/>
+    <hyperlink ref="B14" r:id="rId13" display="力"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Meaning.xlsx
+++ b/Meaning.xlsx
@@ -1,11 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ntrihieu\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7845" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="375">
   <si>
     <t>Filename</t>
   </si>
@@ -1460,19 +1464,265 @@
   </si>
   <si>
     <t>múc lấy</t>
+  </si>
+  <si>
+    <t>不</t>
+  </si>
+  <si>
+    <t> 与</t>
+  </si>
+  <si>
+    <t> 中</t>
+  </si>
+  <si>
+    <t>丹</t>
+  </si>
+  <si>
+    <t> 予</t>
+  </si>
+  <si>
+    <t> 互</t>
+  </si>
+  <si>
+    <t> 五</t>
+  </si>
+  <si>
+    <t>井</t>
+  </si>
+  <si>
+    <t> 仁</t>
+  </si>
+  <si>
+    <t>今</t>
+  </si>
+  <si>
+    <t> 介</t>
+  </si>
+  <si>
+    <t>仏</t>
+  </si>
+  <si>
+    <t>元</t>
+  </si>
+  <si>
+    <t>公</t>
+  </si>
+  <si>
+    <t> 六</t>
+  </si>
+  <si>
+    <t> 内</t>
+  </si>
+  <si>
+    <t> 円</t>
+  </si>
+  <si>
+    <t> 冗</t>
+  </si>
+  <si>
+    <t> 凶</t>
+  </si>
+  <si>
+    <t> 分</t>
+  </si>
+  <si>
+    <t>切</t>
+  </si>
+  <si>
+    <t> 刈</t>
+  </si>
+  <si>
+    <t>化</t>
+  </si>
+  <si>
+    <t>匹</t>
+  </si>
+  <si>
+    <t> 区</t>
+  </si>
+  <si>
+    <t> 升</t>
+  </si>
+  <si>
+    <t>午</t>
+  </si>
+  <si>
+    <t>厄</t>
+  </si>
+  <si>
+    <t> 及</t>
+  </si>
+  <si>
+    <t>友</t>
+  </si>
+  <si>
+    <t>Bất</t>
+  </si>
+  <si>
+    <t>không, chẳng</t>
+  </si>
+  <si>
+    <t>un-; non-; negative prefix</t>
+  </si>
+  <si>
+    <t>フ、 ブ</t>
+  </si>
+  <si>
+    <t>Dư</t>
+  </si>
+  <si>
+    <t>cho, đi lại, thân thiện, tán thưởng</t>
+  </si>
+  <si>
+    <t>bestow, participate in, give, award, impart, provide, cause, gift, godsend</t>
+  </si>
+  <si>
+    <t>あた.える、 あずか.る、 くみ.する、 ともに</t>
+  </si>
+  <si>
+    <t>ヨ</t>
+  </si>
+  <si>
+    <t>medium; average; middle</t>
+  </si>
+  <si>
+    <t>Trung</t>
+  </si>
+  <si>
+    <t> なか、 うち、 あた.る</t>
+  </si>
+  <si>
+    <t>チュウ</t>
+  </si>
+  <si>
+    <t>ở giữa, bên trong</t>
+  </si>
+  <si>
+    <t>Đơn, Đan</t>
+  </si>
+  <si>
+    <t>màu đỏ, thuốc viên</t>
+  </si>
+  <si>
+    <t>rust-colored, red, red lead, pills, sincerity</t>
+  </si>
+  <si>
+    <t>に</t>
+  </si>
+  <si>
+    <t>タン</t>
+  </si>
+  <si>
+    <t>ta, tôi, cho</t>
+  </si>
+  <si>
+    <t>beforehand, previous, myself, I</t>
+  </si>
+  <si>
+    <t>あらかじ.め</t>
+  </si>
+  <si>
+    <t>ヨ、 シャ</t>
+  </si>
+  <si>
+    <t>Hỗ</t>
+  </si>
+  <si>
+    <t>lẫn nhau</t>
+  </si>
+  <si>
+    <t>mutually, reciprocally, together</t>
+  </si>
+  <si>
+    <t>たが.い、 かたみ.に</t>
+  </si>
+  <si>
+    <t>ゴ</t>
+  </si>
+  <si>
+    <t>Ngũ</t>
+  </si>
+  <si>
+    <t>số 5</t>
+  </si>
+  <si>
+    <t> いつ、 いつ.つ</t>
+  </si>
+  <si>
+    <t>five, 5</t>
+  </si>
+  <si>
+    <t>Tỉnh</t>
+  </si>
+  <si>
+    <t>cái giếng</t>
+  </si>
+  <si>
+    <t>well, well crib, town, community</t>
+  </si>
+  <si>
+    <t>い</t>
+  </si>
+  <si>
+    <t>セイ、 ショウ</t>
+  </si>
+  <si>
+    <t>humanity, virtue, benevolence, charity, man, kernel</t>
+  </si>
+  <si>
+    <t> ジン、 ニ、 ニン</t>
+  </si>
+  <si>
+    <t>lòng thương người, tê liệt</t>
+  </si>
+  <si>
+    <t>Kim</t>
+  </si>
+  <si>
+    <t>nay, bây giờ</t>
+  </si>
+  <si>
+    <t>now</t>
+  </si>
+  <si>
+    <t> いま</t>
+  </si>
+  <si>
+    <t> コン、 キン</t>
+  </si>
+  <si>
+    <t>jammed in, shellfish, mediate, concern oneself with</t>
+  </si>
+  <si>
+    <t> カイ</t>
+  </si>
+  <si>
+    <t>Giới</t>
+  </si>
+  <si>
+    <t>Khoảng cách</t>
+  </si>
+  <si>
+    <t>Phật</t>
+  </si>
+  <si>
+    <t>đức phật</t>
+  </si>
+  <si>
+    <t>Buddha, the dead, France</t>
+  </si>
+  <si>
+    <t>ほとけ</t>
+  </si>
+  <si>
+    <t>ブツ、 フツ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-  </numFmts>
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1510,357 +1760,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1868,245 +1782,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2140,62 +1822,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2453,24 +2094,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8962962962963" defaultRowHeight="15.75" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="8.88888888888889" style="1"/>
-    <col min="3" max="3" width="27.4444444444444" customWidth="1"/>
-    <col min="4" max="4" width="15.2222222222222" customWidth="1"/>
-    <col min="5" max="5" width="26.5555555555556" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" customWidth="1"/>
     <col min="6" max="6" width="38" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2497,7 +2138,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="16.5" spans="1:7">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2520,7 +2161,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:7">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2543,7 +2184,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:7">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2560,7 +2201,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:7">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2583,7 +2224,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:7">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2606,7 +2247,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:7">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2629,7 +2270,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:7">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2649,7 +2290,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="1:7">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2672,7 +2313,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="1:7">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2695,7 +2336,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" ht="16.5" spans="1:7">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2718,7 +2359,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" ht="16.5" spans="1:7">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2741,7 +2382,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" ht="16.5" spans="1:7">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2764,7 +2405,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" ht="20" customHeight="1" spans="1:7">
+    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2787,7 +2428,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" ht="16.5" spans="1:7">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2810,7 +2451,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" ht="16.5" spans="1:7">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2833,7 +2474,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="17" ht="16.5" spans="1:7">
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2856,7 +2497,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" ht="16.5" spans="1:7">
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2879,7 +2520,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19" ht="16.5" spans="1:7">
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2902,7 +2543,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" ht="16.5" spans="1:7">
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3455,7 +3096,6 @@
       <c r="B44" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C44"/>
       <c r="D44" t="s">
         <v>251</v>
       </c>
@@ -3584,7 +3224,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:7">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3615,24 +3255,434 @@
         <v>290</v>
       </c>
     </row>
+    <row r="52" spans="1:7">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D52" t="s">
+        <v>324</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="F52" t="s">
+        <v>323</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C53" t="s">
+        <v>328</v>
+      </c>
+      <c r="D53" t="s">
+        <v>329</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="F53" t="s">
+        <v>327</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C54" t="s">
+        <v>332</v>
+      </c>
+      <c r="D54" t="s">
+        <v>333</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="F54" t="s">
+        <v>330</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C55" t="s">
+        <v>338</v>
+      </c>
+      <c r="D55" t="s">
+        <v>339</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="F55" t="s">
+        <v>337</v>
+      </c>
+      <c r="G55" s="11" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C56" t="s">
+        <v>342</v>
+      </c>
+      <c r="D56" t="s">
+        <v>343</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="F56" t="s">
+        <v>341</v>
+      </c>
+      <c r="G56" s="11" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C57" t="s">
+        <v>347</v>
+      </c>
+      <c r="D57" t="s">
+        <v>348</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="F57" t="s">
+        <v>346</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C58" t="s">
+        <v>351</v>
+      </c>
+      <c r="D58" t="s">
+        <v>348</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C59" t="s">
+        <v>356</v>
+      </c>
+      <c r="D59" t="s">
+        <v>357</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="F59" t="s">
+        <v>355</v>
+      </c>
+      <c r="G59" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D60" t="s">
+        <v>359</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F60" t="s">
+        <v>358</v>
+      </c>
+      <c r="G60" s="11" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C61" t="s">
+        <v>364</v>
+      </c>
+      <c r="D61" t="s">
+        <v>365</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D62" t="s">
+        <v>367</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="F62" t="s">
+        <v>366</v>
+      </c>
+      <c r="G62" s="11" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C63" t="s">
+        <v>373</v>
+      </c>
+      <c r="D63" t="s">
+        <v>374</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="F63" t="s">
+        <v>372</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="一"/>
-    <hyperlink ref="B3" r:id="rId2" display="乙 "/>
-    <hyperlink ref="B4" r:id="rId3" display="〇"/>
-    <hyperlink ref="B5" r:id="rId4" display="丁"/>
-    <hyperlink ref="B6" r:id="rId5" display="七"/>
-    <hyperlink ref="B7" r:id="rId6" display="九"/>
-    <hyperlink ref="B8" r:id="rId7" display="了 "/>
-    <hyperlink ref="B9" r:id="rId8" display="二"/>
-    <hyperlink ref="B10" r:id="rId9" display="人"/>
-    <hyperlink ref="B11" r:id="rId10" display=" 入 "/>
-    <hyperlink ref="B12" r:id="rId11" display=" 八"/>
-    <hyperlink ref="B13" r:id="rId12" display="刀"/>
-    <hyperlink ref="B14" r:id="rId13" display="力"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B10" r:id="rId9"/>
+    <hyperlink ref="B11" r:id="rId10"/>
+    <hyperlink ref="B12" r:id="rId11"/>
+    <hyperlink ref="B13" r:id="rId12"/>
+    <hyperlink ref="B14" r:id="rId13"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId14"/>
 </worksheet>
 </file>
--- a/Meaning.xlsx
+++ b/Meaning.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="499">
   <si>
     <t>Filename</t>
   </si>
@@ -1716,6 +1716,378 @@
   </si>
   <si>
     <t>ブツ、 フツ</t>
+  </si>
+  <si>
+    <t>Nguyên</t>
+  </si>
+  <si>
+    <t>bắt đầu, nguyên tố, chủ yếu, căn bản</t>
+  </si>
+  <si>
+    <t>beginning, former time, origin</t>
+  </si>
+  <si>
+    <t>もと</t>
+  </si>
+  <si>
+    <t> ゲン、 ガン</t>
+  </si>
+  <si>
+    <t>public, prince, official, governmental</t>
+  </si>
+  <si>
+    <t>おおやけ</t>
+  </si>
+  <si>
+    <t>コウ、 ク</t>
+  </si>
+  <si>
+    <t>cân bằng, chung</t>
+  </si>
+  <si>
+    <t>む、 む.つ、 むっ.つ、 むい</t>
+  </si>
+  <si>
+    <t>ロク、 リク</t>
+  </si>
+  <si>
+    <t>Lục</t>
+  </si>
+  <si>
+    <t>số 6</t>
+  </si>
+  <si>
+    <t>Six, 6</t>
+  </si>
+  <si>
+    <t>Nội</t>
+  </si>
+  <si>
+    <t>bên trong</t>
+  </si>
+  <si>
+    <t>inside, within, between, among, house, home</t>
+  </si>
+  <si>
+    <t>うち</t>
+  </si>
+  <si>
+    <t>ナイ、 ダイ</t>
+  </si>
+  <si>
+    <t>まる.い、 まる、 まど、 まど.か、 まろ.やか</t>
+  </si>
+  <si>
+    <t>エン</t>
+  </si>
+  <si>
+    <t>Viên</t>
+  </si>
+  <si>
+    <t>Tròn</t>
+  </si>
+  <si>
+    <t>circle, yen, round</t>
+  </si>
+  <si>
+    <t>Nhũng</t>
+  </si>
+  <si>
+    <t>vô tích sự, phiền nhiễu</t>
+  </si>
+  <si>
+    <t>waste; uselessness; redundance</t>
+  </si>
+  <si>
+    <t>Hung</t>
+  </si>
+  <si>
+    <t>hung ác, dữ tợn</t>
+  </si>
+  <si>
+    <t>villain, evil, bad luck, disaster</t>
+  </si>
+  <si>
+    <t>キョウ</t>
+  </si>
+  <si>
+    <t>Phân</t>
+  </si>
+  <si>
+    <t>phân chia</t>
+  </si>
+  <si>
+    <t>part, minute of time, segment, share, degree, one's lot, duty, understand, know, rate, 1%, chances, shaku/100</t>
+  </si>
+  <si>
+    <t>わ.ける、 わ.け、 わ.かれる、 わ.かる、 わ.かつ</t>
+  </si>
+  <si>
+    <t>ブン、 フン、 ブ</t>
+  </si>
+  <si>
+    <t>Thiết</t>
+  </si>
+  <si>
+    <t>cắt. Chạm khắc</t>
+  </si>
+  <si>
+    <t>cut, cutoff, be sharp</t>
+  </si>
+  <si>
+    <t>き.る、 -き.る、 き.り、 -き.り、 -ぎ.り、 き.れる、 -き.れる、 き.れ、 -き.れ、 -ぎ.れ</t>
+  </si>
+  <si>
+    <t>セツ、 サイ</t>
+  </si>
+  <si>
+    <t>reap, cut, clip, trim, prune</t>
+  </si>
+  <si>
+    <t>か.る</t>
+  </si>
+  <si>
+    <t>ガイ、 カイ</t>
+  </si>
+  <si>
+    <t>Ngải</t>
+  </si>
+  <si>
+    <t>cắt cỏ</t>
+  </si>
+  <si>
+    <t>Hóa</t>
+  </si>
+  <si>
+    <t>Biến hóa, biến đổi</t>
+  </si>
+  <si>
+    <t>ば.ける、 ば.かす、 ふ.ける、 け.する</t>
+  </si>
+  <si>
+    <t>カ、 ケ</t>
+  </si>
+  <si>
+    <t>change, take the form of, influence, enchant, delude, -ization</t>
+  </si>
+  <si>
+    <t>tấm (vải), đơn lẻ</t>
+  </si>
+  <si>
+    <t>equal, head, counter for small animals, roll of cloth</t>
+  </si>
+  <si>
+    <t>ひき</t>
+  </si>
+  <si>
+    <t>ヒツ</t>
+  </si>
+  <si>
+    <t>Khu</t>
+  </si>
+  <si>
+    <t>khu vực, vùng</t>
+  </si>
+  <si>
+    <t>ward, district</t>
+  </si>
+  <si>
+    <t>ク、 オウ、 コウ</t>
+  </si>
+  <si>
+    <t>Thăng</t>
+  </si>
+  <si>
+    <t>bay lên</t>
+  </si>
+  <si>
+    <t>measuring box, 1.8 liter</t>
+  </si>
+  <si>
+    <t>ます</t>
+  </si>
+  <si>
+    <t>Ngọ</t>
+  </si>
+  <si>
+    <t>buổi trưa</t>
+  </si>
+  <si>
+    <t>noon, sign of the horse, 11AM-1PM, seventh sign of Chinese zodiac</t>
+  </si>
+  <si>
+    <t>うま</t>
+  </si>
+  <si>
+    <t>Ách</t>
+  </si>
+  <si>
+    <t>hẹp, khốn khổ</t>
+  </si>
+  <si>
+    <t>unlucky, misfortune, bad luck, disaster</t>
+  </si>
+  <si>
+    <t>ヤク</t>
+  </si>
+  <si>
+    <t>reach out, exert, exercise, cause</t>
+  </si>
+  <si>
+    <t>およ.ぶ、 およ.び、 および、 およ.ぼす</t>
+  </si>
+  <si>
+    <t> キュウ</t>
+  </si>
+  <si>
+    <t>Cập</t>
+  </si>
+  <si>
+    <t>tới, đến kịp</t>
+  </si>
+  <si>
+    <t>Hữu</t>
+  </si>
+  <si>
+    <t>Bạn bè</t>
+  </si>
+  <si>
+    <t>とも</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t> 双</t>
+  </si>
+  <si>
+    <t> 反</t>
+  </si>
+  <si>
+    <t> 収</t>
+  </si>
+  <si>
+    <t>天</t>
+  </si>
+  <si>
+    <t>太</t>
+  </si>
+  <si>
+    <t>夫</t>
+  </si>
+  <si>
+    <t>孔</t>
+  </si>
+  <si>
+    <t> 少</t>
+  </si>
+  <si>
+    <t>尺</t>
+  </si>
+  <si>
+    <t>屯</t>
+  </si>
+  <si>
+    <t>幻</t>
+  </si>
+  <si>
+    <t>弔</t>
+  </si>
+  <si>
+    <t>引</t>
+  </si>
+  <si>
+    <t>心</t>
+  </si>
+  <si>
+    <t>戸</t>
+  </si>
+  <si>
+    <t>手</t>
+  </si>
+  <si>
+    <t>支</t>
+  </si>
+  <si>
+    <t>文</t>
+  </si>
+  <si>
+    <t>斗</t>
+  </si>
+  <si>
+    <t>斤</t>
+  </si>
+  <si>
+    <t>方</t>
+  </si>
+  <si>
+    <t>日</t>
+  </si>
+  <si>
+    <t> 月 </t>
+  </si>
+  <si>
+    <t> 木</t>
+  </si>
+  <si>
+    <t> 欠 </t>
+  </si>
+  <si>
+    <t> 止</t>
+  </si>
+  <si>
+    <t>比</t>
+  </si>
+  <si>
+    <t> 毛</t>
+  </si>
+  <si>
+    <t> 氏</t>
+  </si>
+  <si>
+    <t>水</t>
+  </si>
+  <si>
+    <t>火</t>
+  </si>
+  <si>
+    <t> 父</t>
+  </si>
+  <si>
+    <t>片</t>
+  </si>
+  <si>
+    <t> 牛</t>
+  </si>
+  <si>
+    <t> 犬</t>
+  </si>
+  <si>
+    <t>王</t>
+  </si>
+  <si>
+    <t>巴</t>
+  </si>
+  <si>
+    <t> 允</t>
+  </si>
+  <si>
+    <t> 爪</t>
+  </si>
+  <si>
+    <t> 牙</t>
+  </si>
+  <si>
+    <t> 匂</t>
+  </si>
+  <si>
+    <t> 勾</t>
+  </si>
+  <si>
+    <t>乏</t>
+  </si>
+  <si>
+    <t>勿</t>
   </si>
 </sst>
 </file>
@@ -2100,10 +2472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G81"/>
+  <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="D119" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -3529,141 +3901,751 @@
       <c r="B64" s="1" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="65" spans="1:2">
+      <c r="C64" t="s">
+        <v>378</v>
+      </c>
+      <c r="D64" t="s">
+        <v>379</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="F64" t="s">
+        <v>377</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
+      <c r="C65" t="s">
+        <v>381</v>
+      </c>
+      <c r="D65" t="s">
+        <v>382</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="F65" t="s">
+        <v>380</v>
+      </c>
+      <c r="G65" s="11" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
+      <c r="C66" t="s">
+        <v>384</v>
+      </c>
+      <c r="D66" t="s">
+        <v>385</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="F66" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="G66" s="11" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
+      <c r="C67" t="s">
+        <v>392</v>
+      </c>
+      <c r="D67" t="s">
+        <v>393</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="F67" t="s">
+        <v>391</v>
+      </c>
+      <c r="G67" s="11" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="69" spans="1:2">
+      <c r="C68" t="s">
+        <v>394</v>
+      </c>
+      <c r="D68" t="s">
+        <v>395</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="F68" t="s">
+        <v>398</v>
+      </c>
+      <c r="G68" s="11" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="70" spans="1:2">
+      <c r="D69" t="s">
+        <v>108</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="F69" t="s">
+        <v>401</v>
+      </c>
+      <c r="G69" s="11" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="71" spans="1:2">
+      <c r="D70" t="s">
+        <v>405</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="F70" t="s">
+        <v>404</v>
+      </c>
+      <c r="G70" s="11" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="72" spans="1:2">
+      <c r="C71" t="s">
+        <v>409</v>
+      </c>
+      <c r="D71" t="s">
+        <v>410</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="F71" t="s">
+        <v>408</v>
+      </c>
+      <c r="G71" s="11" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="73" spans="1:2">
+      <c r="C72" t="s">
+        <v>414</v>
+      </c>
+      <c r="D72" t="s">
+        <v>415</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="F72" t="s">
+        <v>413</v>
+      </c>
+      <c r="G72" s="11" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="74" spans="1:2">
+      <c r="C73" t="s">
+        <v>417</v>
+      </c>
+      <c r="D73" t="s">
+        <v>418</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="F73" t="s">
+        <v>416</v>
+      </c>
+      <c r="G73" s="11" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="75" spans="1:2">
+      <c r="C74" t="s">
+        <v>423</v>
+      </c>
+      <c r="D74" t="s">
+        <v>424</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="F74" t="s">
+        <v>425</v>
+      </c>
+      <c r="G74" s="11" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="76" spans="1:2">
+      <c r="C75" t="s">
+        <v>428</v>
+      </c>
+      <c r="D75" t="s">
+        <v>429</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F75" t="s">
+        <v>427</v>
+      </c>
+      <c r="G75" s="11" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="77" spans="1:2">
+      <c r="D76" t="s">
+        <v>433</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="F76" t="s">
+        <v>432</v>
+      </c>
+      <c r="G76" s="11" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="78" spans="1:2">
+      <c r="C77" t="s">
+        <v>437</v>
+      </c>
+      <c r="D77" t="s">
+        <v>212</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="F77" t="s">
+        <v>436</v>
+      </c>
+      <c r="G77" s="11" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="79" spans="1:2">
+      <c r="C78" t="s">
+        <v>441</v>
+      </c>
+      <c r="D78" t="s">
+        <v>348</v>
+      </c>
+      <c r="E78" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="F78" t="s">
+        <v>440</v>
+      </c>
+      <c r="G78" s="11" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="80" spans="1:2">
+      <c r="D79" t="s">
+        <v>445</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="F79" t="s">
+        <v>444</v>
+      </c>
+      <c r="G79" s="11" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="81" spans="1:2">
+      <c r="C80" t="s">
+        <v>447</v>
+      </c>
+      <c r="D80" t="s">
+        <v>448</v>
+      </c>
+      <c r="E80" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="F80" t="s">
+        <v>446</v>
+      </c>
+      <c r="G80" s="11" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>320</v>
+      </c>
+      <c r="C81" t="s">
+        <v>453</v>
+      </c>
+      <c r="D81" t="s">
+        <v>90</v>
+      </c>
+      <c r="E81" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="F81" t="s">
+        <v>454</v>
+      </c>
+      <c r="G81" s="11" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>498</v>
       </c>
     </row>
   </sheetData>
